--- a/요구사항/table schema.xlsx
+++ b/요구사항/table schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bitProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bitProject\요구사항\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C72904-CEB0-4E52-87D7-0259DF11FFA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377F1C67-2466-4EA2-9CC7-FF36265D3877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="1965" windowWidth="18165" windowHeight="11835" xr2:uid="{28819AA9-4503-44B8-B638-1AB415FCC724}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{28819AA9-4503-44B8-B638-1AB415FCC724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -784,6 +784,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>